--- a/Save/Convite Casamento.xlsx
+++ b/Save/Convite Casamento.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\BR-Depre\Save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D47CEA8-74C7-4A75-87E3-F12750C0966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A476A-CB5F-4983-BC76-9A08CFA099A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12612" xr2:uid="{45D87FCA-4863-4E67-9A85-9A06750C85B9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{45D87FCA-4863-4E67-9A85-9A06750C85B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>Nome</t>
   </si>
@@ -150,12 +147,6 @@
     <t>Tio Hud</t>
   </si>
   <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
     <t>Tio Elias</t>
   </si>
   <si>
@@ -349,14 +340,58 @@
   </si>
   <si>
     <t>5º Leva</t>
+  </si>
+  <si>
+    <t>Brazileia Lima</t>
+  </si>
+  <si>
+    <t>Margareth Nascimento</t>
+  </si>
+  <si>
+    <t>Naassom Mendes</t>
+  </si>
+  <si>
+    <t>Walkiria Amull</t>
+  </si>
+  <si>
+    <t>Tábata Mairna</t>
+  </si>
+  <si>
+    <t>Alcifran</t>
+  </si>
+  <si>
+    <t>Luísa</t>
+  </si>
+  <si>
+    <t>Carlos Vinícius</t>
+  </si>
+  <si>
+    <t>David Ellis</t>
+  </si>
+  <si>
+    <t>Filipe Dias</t>
+  </si>
+  <si>
+    <t>Marcos Bryan</t>
+  </si>
+  <si>
+    <t>Abraão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -402,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -425,11 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,6 +506,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6E498-353A-4749-986D-F178AFE0F70C}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -857,16 +905,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>89</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1047,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1066,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1155,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -1171,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -1251,7 +1299,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -1267,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -1363,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -1379,14 +1427,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="10">
-        <v>5</v>
+      <c r="E31" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,7 +1443,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -1411,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -1427,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -1443,7 +1491,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -1459,14 +1507,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="9">
-        <v>4</v>
+      <c r="E36" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1475,14 +1523,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C37" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="7">
-        <v>1</v>
+      <c r="E37" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5">
         <v>31</v>
@@ -1507,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5">
         <v>31</v>
@@ -1523,7 +1571,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5">
         <v>31</v>
@@ -1539,7 +1587,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5">
         <v>31</v>
@@ -1555,7 +1603,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5">
         <v>31</v>
@@ -1571,14 +1619,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5">
         <v>31</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="8">
-        <v>2</v>
+      <c r="E43" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1587,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5">
         <v>31</v>
@@ -1603,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C45" s="5">
         <v>31</v>
@@ -1619,7 +1667,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="5">
         <v>31</v>
@@ -1635,7 +1683,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C47" s="5">
         <v>31</v>
@@ -1651,14 +1699,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C48" s="5">
         <v>31</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="9">
-        <v>4</v>
+      <c r="E48" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -1667,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C49" s="5">
         <v>31</v>
@@ -1683,7 +1731,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="5">
         <v>31</v>
@@ -1699,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C51" s="5">
         <v>31</v>
@@ -1709,19 +1757,19 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
         <v>88</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>89</v>
-      </c>
-      <c r="J51" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -1730,14 +1778,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C52" s="5">
         <v>31</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="10">
-        <v>5</v>
+      <c r="E52" s="9">
+        <v>4</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1761,14 +1809,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C53" s="5">
         <v>31</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="10">
-        <v>5</v>
+      <c r="E53" s="9">
+        <v>4</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -1792,14 +1840,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C54" s="5">
         <v>31</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="10">
-        <v>5</v>
+      <c r="E54" s="9">
+        <v>4</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -1823,7 +1871,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C55" s="5">
         <v>31</v>
@@ -1854,7 +1902,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C56" s="5">
         <v>31</v>
@@ -1885,14 +1933,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C57" s="5">
         <v>31</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="11">
-        <v>6</v>
+      <c r="E57" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -1901,17 +1949,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C58" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="7">
-        <v>1</v>
+      <c r="E58" s="10">
+        <v>5</v>
       </c>
       <c r="L58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -1920,17 +1968,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C59" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="8">
-        <v>2</v>
+      <c r="E59" s="10">
+        <v>5</v>
       </c>
       <c r="L59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -1939,14 +1987,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C60" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="8">
-        <v>2</v>
+      <c r="E60" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -1955,14 +2003,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C61" s="5">
         <v>32</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="9">
-        <v>4</v>
+      <c r="E61" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -1971,14 +2019,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C62" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="7">
-        <v>1</v>
+      <c r="E62" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -1987,14 +2035,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C63" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="7">
-        <v>1</v>
+      <c r="E63" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2003,14 +2051,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C64" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="8">
-        <v>2</v>
+      <c r="E64" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2019,14 +2067,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C65" s="5">
         <v>33</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="9">
-        <v>4</v>
+      <c r="E65" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2035,14 +2083,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C66" s="5">
         <v>33</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="9">
-        <v>4</v>
+      <c r="E66" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -2051,29 +2099,29 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C67" s="5">
         <v>33</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="10">
-        <v>5</v>
+      <c r="E67" s="8">
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" t="s">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
         <v>88</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>89</v>
-      </c>
-      <c r="J67" t="s">
-        <v>90</v>
-      </c>
-      <c r="L67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -2082,14 +2130,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C68" s="5">
         <v>33</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="10">
-        <v>5</v>
+      <c r="E68" s="9">
+        <v>4</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -2113,14 +2161,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C69" s="5">
         <v>33</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="10">
-        <v>5</v>
+      <c r="E69" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -2129,7 +2177,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C70" s="5">
         <v>33</v>
@@ -2139,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="L70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -2148,7 +2196,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C71" s="5">
         <v>33</v>
@@ -2158,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="L71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -2167,10 +2215,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C72" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="10">
@@ -2183,10 +2231,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C73" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="10">
@@ -2199,14 +2247,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C74" s="5">
         <v>34</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="10">
-        <v>5</v>
+      <c r="E74" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -2215,17 +2263,17 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C75" s="5">
         <v>34</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="10">
-        <v>5</v>
+      <c r="E75" s="9">
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -2234,26 +2282,26 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C76" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="8">
-        <v>2</v>
+      <c r="E76" s="10">
+        <v>5</v>
       </c>
       <c r="H76" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" t="s">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s">
         <v>88</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>89</v>
-      </c>
-      <c r="J76" t="s">
-        <v>90</v>
-      </c>
-      <c r="L76" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -2262,14 +2310,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C77" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="8">
-        <v>2</v>
+      <c r="E77" s="10">
+        <v>5</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2293,14 +2341,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C78" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="8">
-        <v>2</v>
+      <c r="E78" s="10">
+        <v>5</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -2324,10 +2372,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C79" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="10">
@@ -2355,10 +2403,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C80" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="10">
@@ -2371,17 +2419,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C81" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="7">
-        <v>1</v>
+      <c r="E81" s="8">
+        <v>2</v>
       </c>
       <c r="L81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -2390,17 +2438,17 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C82" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="7">
-        <v>1</v>
+      <c r="E82" s="8">
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -2409,10 +2457,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C83" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="8">
@@ -2425,24 +2473,126 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C84" s="5">
+        <v>40</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="10">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="5">
+        <v>40</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="5">
         <v>50</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="9">
+      <c r="D86" s="3"/>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="5">
+        <v>50</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="5">
+        <v>50</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="5">
+        <v>50</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="9">
         <v>4</v>
       </c>
-      <c r="F84" t="s">
-        <v>103</v>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E84">
-    <sortCondition ref="C2:C84"/>
-    <sortCondition ref="E2:E84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E89">
+    <sortCondition ref="C2:C89"/>
+    <sortCondition ref="E2:E89"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>